--- a/DATA_goal/Junction_Flooding_321.xlsx
+++ b/DATA_goal/Junction_Flooding_321.xlsx
@@ -448,28 +448,28 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>45002.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.78</v>
+        <v>37.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.36</v>
+        <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.44</v>
+        <v>204.37</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.86</v>
+        <v>38.64</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.53</v>
+        <v>25.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.22</v>
+        <v>22.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45002.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.33</v>
+        <v>33.27</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.68</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.66</v>
+        <v>46.62</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.9</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.94</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.58</v>
+        <v>175.8</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.37</v>
+        <v>33.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W3" s="4" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>2.23</v>
       </c>
-      <c r="X3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>2.27</v>
+        <v>22.72</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.84</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.26</v>
+        <v>42.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45002.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.43</v>
+        <v>24.25</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45002.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.7</v>
+        <v>46.99</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.84</v>
+        <v>38.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.3</v>
+        <v>62.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.59</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.86</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.87</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.4</v>
+        <v>24.04</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.02</v>
+        <v>250.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.72</v>
+        <v>47.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.17</v>
+        <v>31.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.1</v>
+        <v>31.04</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.77</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.71</v>
+        <v>57.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_321.xlsx
+++ b/DATA_goal/Junction_Flooding_321.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45002.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>4.002</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.83</v>
+        <v>37.831</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.945</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.9</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.3</v>
+        <v>13.298</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.88</v>
+        <v>14.882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.46</v>
+        <v>15.457</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.465</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.35</v>
+        <v>19.348</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>12.001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>204.37</v>
+        <v>204.374</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.64</v>
+        <v>38.641</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.29</v>
+        <v>25.287</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.826</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.23</v>
+        <v>22.227</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.137</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.411</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.318</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.05</v>
+        <v>16.052</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45002.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.37</v>
+        <v>15.374</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.83</v>
+        <v>10.828</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.78</v>
+        <v>1.776</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33.27</v>
+        <v>33.266</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.68</v>
+        <v>26.682</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.1</v>
+        <v>12.099</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>46.62</v>
+        <v>46.619</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.02</v>
+        <v>8.023</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.77</v>
+        <v>11.768</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.3</v>
+        <v>13.302</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.9</v>
+        <v>13.898</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.87</v>
+        <v>3.865</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.94</v>
+        <v>16.936</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.406</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.528</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.049</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>175.8</v>
+        <v>175.804</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.68</v>
+        <v>33.675</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.28</v>
+        <v>22.281</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.55</v>
+        <v>11.554</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.23</v>
+        <v>2.226</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.72</v>
+        <v>22.719</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.885</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.421</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.84</v>
+        <v>13.844</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>42.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.11</v>
+        <v>6.106</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.88</v>
+        <v>13.884</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45002.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.69</v>
+        <v>7.687</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.31</v>
+        <v>5.307</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.029</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.64</v>
+        <v>16.645</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.15</v>
+        <v>13.152</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.05</v>
+        <v>6.049</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.42</v>
+        <v>26.425</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.98</v>
+        <v>3.977</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.72</v>
+        <v>5.716</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>6.67</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.94</v>
+        <v>6.942</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.94</v>
+        <v>1.936</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.44</v>
+        <v>8.443</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.32</v>
+        <v>5.323</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.967</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.57</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.25</v>
+        <v>84.251</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.96</v>
+        <v>16.956</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.12</v>
+        <v>11.121</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.74</v>
+        <v>5.741</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.22</v>
+        <v>1.222</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.41</v>
+        <v>12.409</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.9</v>
+        <v>4.904</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.5</v>
+        <v>4.503</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>5.27</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.93</v>
+        <v>6.927</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.25</v>
+        <v>24.252</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3</v>
+        <v>2.998</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.94</v>
+        <v>6.943</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45002.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>44.36</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_321.xlsx
+++ b/DATA_goal/Junction_Flooding_321.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>45002.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.62</v>
+        <v>21.619</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.9</v>
+        <v>15.896</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.99</v>
+        <v>46.987</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.36</v>
+        <v>38.362</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.96</v>
+        <v>62.958</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.59</v>
+        <v>11.593</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.15</v>
+        <v>17.148</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.86</v>
+        <v>18.856</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.87</v>
+        <v>19.868</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.43</v>
+        <v>5.434</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.04</v>
+        <v>24.043</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.874</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>250.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.24</v>
+        <v>47.241</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.72</v>
+        <v>31.719</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>16.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.54</v>
+        <v>2.544</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.04</v>
+        <v>31.037</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.25</v>
+        <v>12.253</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>14.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.77</v>
+        <v>19.767</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.08</v>
+        <v>57.077</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.77</v>
+        <v>8.772</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.52</v>
+        <v>19.524</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45002.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>175.81</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>44.36</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_321.xlsx
+++ b/DATA_goal/Junction_Flooding_321.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>45002.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.619</v>
+        <v>21.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.896</v>
+        <v>15.9</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.987</v>
+        <v>46.99</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.362</v>
+        <v>38.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.013</v>
+        <v>17.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.958</v>
+        <v>62.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.178</v>
+        <v>26.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.593</v>
+        <v>11.59</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.148</v>
+        <v>17.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.856</v>
+        <v>18.86</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.868</v>
+        <v>19.87</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.434</v>
+        <v>5.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.918</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.043</v>
+        <v>24.04</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.287</v>
+        <v>14.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.851</v>
+        <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.874</v>
+        <v>0.87</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>250.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.241</v>
+        <v>47.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.616</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.719</v>
+        <v>31.72</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>16.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.544</v>
+        <v>2.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.037</v>
+        <v>31.04</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.794</v>
+        <v>13.79</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.253</v>
+        <v>12.25</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>14.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.767</v>
+        <v>19.77</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.077</v>
+        <v>57.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.772</v>
+        <v>8.77</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.524</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45002.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>44.36</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>
